--- a/Basic Concepts/QB_Operators_and_Operands.xlsx
+++ b/Basic Concepts/QB_Operators_and_Operands.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anikannal/Documents/Python_Practice/NB_Quizzes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anikannal/Documents/GitHub/BasicPython/Basic Concepts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040A25DA-B69C-4645-8F24-118C9AE1C243}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B86BBE-74CD-F945-8B28-4590137DCF89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,9 +390,6 @@
     <t>int(’10.8’)</t>
   </si>
   <si>
-    <t>10 20</t>
-  </si>
-  <si>
     <t>10 20 30</t>
   </si>
   <si>
@@ -406,6 +403,10 @@
   </si>
   <si>
     <t>Exponentiation and Multiplication</t>
+  </si>
+  <si>
+    <t>10 20 \n
+abc</t>
   </si>
 </sst>
 </file>
@@ -471,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -486,6 +487,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,7 +713,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -771,11 +775,11 @@
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>9</v>
@@ -784,7 +788,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>10</v>
@@ -824,7 +828,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>17</v>
@@ -1183,7 +1187,7 @@
     </row>
     <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>82</v>
@@ -1206,7 +1210,7 @@
     </row>
     <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" s="6">
         <v>17</v>
@@ -1261,7 +1265,7 @@
         <v>89</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>90</v>
